--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>CAP_BND</t>
-  </si>
-  <si>
-    <t>\I:</t>
   </si>
 </sst>
 </file>
@@ -543,7 +540,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,28 +695,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D11" s="4">
         <v>2050</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E11" s="4">
         <v>50</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="10"/>
@@ -807,17 +803,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1012,6 +997,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1022,19 +1018,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1053,6 +1036,19 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
